--- a/SpaOnline/ModeloDominio/InformacionBase - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/InformacionBase - Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39B431D-20CA-413D-8DD5-CC779AD3C487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E254246-1168-4D1C-AA1D-7B74F7BD6FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>InformacionBase</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
+    <t>TI</t>
   </si>
 </sst>
 </file>
@@ -179,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -194,6 +203,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -662,10 +672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +714,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C6" si="0">B3</f>
+        <f t="shared" ref="C3:C9" si="0">B3</f>
         <v>NIT</v>
       </c>
     </row>
@@ -742,6 +752,42 @@
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>NIF</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>CC</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Pasaporte</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>TI</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/InformacionBase - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/InformacionBase - Muestreo Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E254246-1168-4D1C-AA1D-7B74F7BD6FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9E254246-1168-4D1C-AA1D-7B74F7BD6FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCD5054B-0D29-4FB2-AE4A-4BD120631241}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
@@ -188,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -203,7 +203,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -675,7 +674,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,10 +754,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="str">
@@ -767,10 +766,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="str">
@@ -779,10 +778,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5" t="str">

--- a/SpaOnline/ModeloDominio/InformacionBase - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/InformacionBase - Muestreo Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{9E254246-1168-4D1C-AA1D-7B74F7BD6FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCD5054B-0D29-4FB2-AE4A-4BD120631241}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2C522C-2FFD-4879-A492-498F78B6B1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
@@ -674,7 +674,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
